--- a/docs/odh/shr-core-TimeOfDay-model.xlsx
+++ b/docs/odh/shr-core-TimeOfDay-model.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="44">
   <si>
     <t>Path</t>
   </si>
@@ -134,8 +134,7 @@
     <t>*</t>
   </si>
   <si>
-    <t>Time of day the event should take place on the designated day(s).
-TimeOfDay should only be specified if the RecurrenceInterval and/or DayOfWeek establishes the day when the event should take place.</t>
+    <t>Time of day the event should take place on the designated day(s).</t>
   </si>
   <si>
     <t>shr-core-TimeOfDay-model.value</t>
@@ -149,10 +148,6 @@
   </si>
   <si>
     <t>Time representing time of day the event should take place on the designated day(s).</t>
-  </si>
-  <si>
-    <t>Time representing time of day the event should take place on the designated day(s).
-TimeOfDay should only be specified if the RecurrenceInterval and/or DayOfWeek establishes the day when the event should take place.</t>
   </si>
 </sst>
 </file>
@@ -301,7 +296,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ3"/>
+  <dimension ref="A1:AI3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -580,7 +575,7 @@
         <v>43</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
